--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H2" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J2" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K2" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L2" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N2" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P2" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J3" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L3" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N3" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P3" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H4" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J4" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K4" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L4" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N4" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P4" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H5" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J5" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K5" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L5" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N5" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P5" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J6" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L6" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N6" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P6" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H7" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J7" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K7" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L7" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N7" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P7" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H8" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J8" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K8" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L8" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N8" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P8" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H9" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J9" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K9" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L9" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N9" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P9" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J10" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K10" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L10" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N10" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P10" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H11" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J11" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K11" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L11" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N11" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P11" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H12" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J12" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K12" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L12" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N12" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P12" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H13" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J13" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K13" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L13" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P13" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H14" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J14" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K14" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L14" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N14" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P14" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H15" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J15" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K15" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L15" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N15" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P15" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H16" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J16" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K16" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L16" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N16" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P16" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H17" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J17" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K17" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L17" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N17" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P17" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H18" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J18" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K18" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L18" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N18" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P18" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H19" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J19" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K19" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L19" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N19" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P19" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H20" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J20" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K20" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L20" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N20" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P20" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J21" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K21" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L21" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N21" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P21" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H22" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J22" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K22" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L22" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N22" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P22" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H23" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J23" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K23" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L23" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N23" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P23" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H24" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J24" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K24" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L24" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N24" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P24" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H25" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J25" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K25" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L25" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N25" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P25" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9603939983768939</v>
+        <v>0.9959094076139086</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999999999999062</v>
+        <v>0.8681332129985964</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9835449283539103</v>
+        <v>0.9164529386717214</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H26" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4088808072259861</v>
+        <v>0.01774961222791054</v>
       </c>
       <c r="J26" t="n">
-        <v>9.931857224635509e-12</v>
+        <v>1.059647248919488</v>
       </c>
       <c r="K26" t="n">
-        <v>0.204440403617959</v>
+        <v>0.5386984305736787</v>
       </c>
       <c r="L26" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N26" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P26" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_9.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_0</t>
+          <t>model_18_9_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972154864228633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139338936410787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9668378518378155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9952485888940509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9883691493577977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01862005511181935</v>
       </c>
       <c r="H2" t="n">
-        <v>1.841566075300257</v>
+        <v>1.912925370435408</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.0742742620068125</v>
       </c>
       <c r="J2" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03154875131404684</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05291150460805866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.940342732688491</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1364553227683675</v>
       </c>
       <c r="N2" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005140640450099</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1422645083600758</v>
       </c>
       <c r="P2" t="n">
-        <v>75.51318630499273</v>
+        <v>81.96703209463831</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.6115918251162</v>
+        <v>127.0654376147617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_22</t>
+          <t>model_18_9_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972451734807529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139324984199671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9671415737014103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9950310654269151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9882851708262427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01842153761901486</v>
       </c>
       <c r="H3" t="n">
-        <v>1.841566075300257</v>
+        <v>1.912934700285406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07359400700151211</v>
       </c>
       <c r="J3" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03299307882362496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05329354291256854</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9321992220053201</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1357259651614784</v>
       </c>
       <c r="N3" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005085833573995</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1415041004898831</v>
       </c>
       <c r="P3" t="n">
-        <v>75.51318630499273</v>
+        <v>81.98846955224462</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.6115918251162</v>
+        <v>127.086875072368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_21</t>
+          <t>model_18_9_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9971751973292508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139292344284086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9664959838721203</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9954830840134631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9884561218355084</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01888946846632025</v>
       </c>
       <c r="H4" t="n">
-        <v>1.841566075300257</v>
+        <v>1.912956526611987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07503995398586019</v>
       </c>
       <c r="J4" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02999173424233332</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05251584613072745</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9494244554727541</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1374389626937</v>
       </c>
       <c r="N4" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005215020315229</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.143290023873445</v>
       </c>
       <c r="P4" t="n">
-        <v>75.51318630499273</v>
+        <v>81.93830147245551</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.6115918251162</v>
+        <v>127.0367069925789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_20</t>
+          <t>model_18_9_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972665646167392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139267946227691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9674118415157429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9948300131435751</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9882049782936473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01827849499417713</v>
       </c>
       <c r="H5" t="n">
-        <v>1.841566075300257</v>
+        <v>1.912972841603533</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07298868003790374</v>
       </c>
       <c r="J5" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03432803981663862</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.0536583578077539</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.924895468485198</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1351979844308972</v>
       </c>
       <c r="N5" t="n">
-        <v>1.129554360817876</v>
+        <v>1.00504634224602</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1409536425265303</v>
       </c>
       <c r="P5" t="n">
-        <v>75.51318630499273</v>
+        <v>82.00406009415957</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.6115918251162</v>
+        <v>127.102465614283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_19</t>
+          <t>model_18_9_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972815095352439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139179754563555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.967652254455496</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9946448199930105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9881290092419823</v>
       </c>
       <c r="G6" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01817855825532161</v>
       </c>
       <c r="H6" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913031815409949</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07245021993605154</v>
       </c>
       <c r="J6" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03555769823220128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05400395908412642</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9183432273298975</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1348278838197856</v>
       </c>
       <c r="N6" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005018751627242</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1405677859661897</v>
       </c>
       <c r="P6" t="n">
-        <v>75.51318630499273</v>
+        <v>82.01502499453045</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1134305146539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_18</t>
+          <t>model_18_9_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9971214296149877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7139164126125663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9661103911534024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9957348779771751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9885449559272388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0192490134191746</v>
       </c>
       <c r="H7" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913042266153564</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07590357761114265</v>
       </c>
       <c r="J7" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02831985509603475</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05211171872865345</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9595591550892153</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1387408138190583</v>
       </c>
       <c r="N7" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005314283787715</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1446472974964132</v>
       </c>
       <c r="P7" t="n">
-        <v>75.51318630499273</v>
+        <v>81.90059094102737</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.6115918251162</v>
+        <v>126.9989964611508</v>
       </c>
     </row>
     <row r="8">
@@ -852,1042 +852,1042 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972914473555899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.713907090785217</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9678665098467205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9944746225154825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9880575453760099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01811210400490846</v>
       </c>
       <c r="H8" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913104601255971</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07197034568344414</v>
       </c>
       <c r="J8" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03668778733059265</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05432906519975247</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9124628770185226</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.134581217132661</v>
       </c>
       <c r="N8" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005000404881988</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1403106181675238</v>
       </c>
       <c r="P8" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02234966931475</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1207551894382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_16</t>
+          <t>model_18_9_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972975457242024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138949243589032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9680576186818938</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9943186082498822</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9879907336535245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0180713241859166</v>
       </c>
       <c r="H9" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913185958204753</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07154231346954619</v>
       </c>
       <c r="J9" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03772370174782862</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.0546330076086874</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9071884799413634</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1344296254027236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004989146355319</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1401525728638049</v>
       </c>
       <c r="P9" t="n">
-        <v>75.51318630499273</v>
+        <v>82.0268577923199</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1252633124433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_15</t>
+          <t>model_18_9_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9970505508496339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138928321964322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9656747023043512</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9960037668321254</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9886339341648668</v>
       </c>
       <c r="G10" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01972298004946274</v>
       </c>
       <c r="H10" t="n">
-        <v>1.841566075300257</v>
+        <v>1.91319994850483</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07687940304831312</v>
       </c>
       <c r="J10" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02653446809693293</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05170693557262302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9708784928756564</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1404385276534283</v>
       </c>
       <c r="N10" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005445136892984</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1464172865234644</v>
       </c>
       <c r="P10" t="n">
-        <v>75.51318630499273</v>
+        <v>81.85194164619585</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.6115918251162</v>
+        <v>126.9503471663193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_14</t>
+          <t>model_18_9_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9973007694426966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138820381891848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9682285905320805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9941759342227032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9879287000169352</v>
       </c>
       <c r="G11" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01804976716550137</v>
       </c>
       <c r="H11" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913272128080995</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07115938266740209</v>
       </c>
       <c r="J11" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03867103871827218</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05491521336897305</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9024432445883024</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1343494219023713</v>
       </c>
       <c r="N11" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004983194875022</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1400689549343984</v>
       </c>
       <c r="P11" t="n">
-        <v>75.51318630499273</v>
+        <v>82.0292449874093</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1276505075327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_13</t>
+          <t>model_18_9_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9973017740859529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138688850592873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9683810223394859</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9940455408027931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9878710657598186</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01804304911142118</v>
       </c>
       <c r="H12" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913360083121185</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07081797655745949</v>
       </c>
       <c r="J12" t="n">
-        <v>1.059647248919488</v>
+        <v>0.03953683405485883</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05517740530615915</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.8981886916769419</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1343244174058506</v>
       </c>
       <c r="N12" t="n">
-        <v>1.129554360817876</v>
+        <v>1.00498134014901</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1400428859446944</v>
       </c>
       <c r="P12" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02998951829946</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1283950384229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_23</t>
+          <t>model_18_9_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9973011942708618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138557896882045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.968517548301295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9939267767208633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.987818002283489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01804692633760458</v>
       </c>
       <c r="H13" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913447651927914</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07051219524894614</v>
       </c>
       <c r="J13" t="n">
-        <v>1.059647248919488</v>
+        <v>0.04032541210089484</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05541880367492049</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.8943618293496681</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1343388489514652</v>
       </c>
       <c r="N13" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004982410576871</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1400579318710832</v>
       </c>
       <c r="P13" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02955978941768</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1279653095411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_12</t>
+          <t>model_18_9_9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9969581038792468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138550037100595</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9651823316266748</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9962893785867594</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9887211627828367</v>
       </c>
       <c r="G14" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0203411733661205</v>
       </c>
       <c r="H14" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913452907767389</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07798218048418247</v>
       </c>
       <c r="J14" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02463804322053517</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05131011185235883</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9835201395174462</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1426224854857063</v>
       </c>
       <c r="N14" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005615808222929</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1486942199620785</v>
       </c>
       <c r="P14" t="n">
-        <v>75.51318630499273</v>
+        <v>81.7902164048181</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.6115918251162</v>
+        <v>126.8886219249415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_10</t>
+          <t>model_18_9_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972994569471239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138429377929868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9686396090637532</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9938186360619223</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.987769130718588</v>
       </c>
       <c r="G15" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01805854382944013</v>
       </c>
       <c r="H15" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913533592610412</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07023881208307786</v>
       </c>
       <c r="J15" t="n">
-        <v>1.059647248919488</v>
+        <v>0.04104345200099759</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05564113204203772</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.890923875110762</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1343820815043439</v>
       </c>
       <c r="N15" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004985617943771</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1401030049232417</v>
       </c>
       <c r="P15" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02827272768629</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1266782478097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_9</t>
+          <t>model_18_9_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972968919194388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.713830560341536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9687490964906303</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9937202860999729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9877243085627212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01807569618138074</v>
       </c>
       <c r="H16" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913616360685256</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.06999358979559042</v>
       </c>
       <c r="J16" t="n">
-        <v>1.059647248919488</v>
+        <v>0.04169648294740511</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05584503868478006</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.8878347961508315</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1344458856989709</v>
       </c>
       <c r="N16" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004990353379497</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1401695253945268</v>
       </c>
       <c r="P16" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02637399084016</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1247795109636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_8</t>
+          <t>model_18_9_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9972937874703148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7138187349448175</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9688469889389089</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9936310288477102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.987683268290965</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469262412304898</v>
+        <v>0.01809645564696765</v>
       </c>
       <c r="H17" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913695437167564</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.06977433713088484</v>
       </c>
       <c r="J17" t="n">
-        <v>1.059647248919488</v>
+        <v>0.04228913948497305</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05603174063762478</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.8850581556034122</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1345230673415071</v>
       </c>
       <c r="N17" t="n">
-        <v>1.129554360817876</v>
+        <v>1.004996084670188</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1402499928193738</v>
       </c>
       <c r="P17" t="n">
-        <v>75.51318630499273</v>
+        <v>82.02407836099047</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.6115918251162</v>
+        <v>127.1224838811139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_7</t>
+          <t>model_18_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9968384270272868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7137987321188179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9646235427580205</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9965905460638621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9888033942560653</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469262412304898</v>
+        <v>0.02114145302623878</v>
       </c>
       <c r="H18" t="n">
-        <v>1.841566075300257</v>
+        <v>1.913829196157128</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.07923371674274843</v>
       </c>
       <c r="J18" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02263833037163124</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05093602133150958</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9976615172646519</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.145401007652075</v>
       </c>
       <c r="N18" t="n">
-        <v>1.129554360817876</v>
+        <v>1.005836750103471</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1515910295694033</v>
       </c>
       <c r="P18" t="n">
-        <v>75.51318630499273</v>
+        <v>81.71303913479956</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.6115918251162</v>
+        <v>126.811444654923</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_6</t>
+          <t>model_18_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9966845879383968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7137186372838003</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9639885182166035</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9969053518629271</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9888768111149505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.469262412304898</v>
+        <v>0.02217017572200966</v>
       </c>
       <c r="H19" t="n">
-        <v>1.841566075300257</v>
+        <v>1.914364790687694</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.08065600033364544</v>
       </c>
       <c r="J19" t="n">
-        <v>1.059647248919488</v>
+        <v>0.02054806084002055</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.050602030586833</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.013484626227171</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1488965268970692</v>
       </c>
       <c r="N19" t="n">
-        <v>1.129554360817876</v>
+        <v>1.006120760729114</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1552353603053793</v>
       </c>
       <c r="P19" t="n">
-        <v>75.51318630499273</v>
+        <v>81.61801465853704</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.6115918251162</v>
+        <v>126.7164201786605</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_5</t>
+          <t>model_18_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.996487936376704</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7136079091478782</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9632656381121654</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9972310860756004</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9889365771663881</v>
       </c>
       <c r="G20" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0234851856205469</v>
       </c>
       <c r="H20" t="n">
-        <v>1.841566075300257</v>
+        <v>1.915105230242461</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.08227505667504885</v>
       </c>
       <c r="J20" t="n">
-        <v>1.059647248919488</v>
+        <v>0.01838522806446072</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05033014061048266</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.031199001269137</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1532487703720552</v>
       </c>
       <c r="N20" t="n">
-        <v>1.129554360817876</v>
+        <v>1.006483809766085</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1597728877954814</v>
       </c>
       <c r="P20" t="n">
-        <v>75.51318630499273</v>
+        <v>81.50277091148553</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.6115918251162</v>
+        <v>126.6011764316089</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_4</t>
+          <t>model_18_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9962376400838168</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.713458228652679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9624396813314352</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9975636427312489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9889759474008845</v>
       </c>
       <c r="G21" t="n">
-        <v>0.469262412304898</v>
+        <v>0.02515891808359149</v>
       </c>
       <c r="H21" t="n">
-        <v>1.841566075300257</v>
+        <v>1.916106144403073</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.08412497695277722</v>
       </c>
       <c r="J21" t="n">
-        <v>1.059647248919488</v>
+        <v>0.01617709515553442</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05015103605415583</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.051063727614974</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1586156300103854</v>
       </c>
       <c r="N21" t="n">
-        <v>1.129554360817876</v>
+        <v>1.006945895229877</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1653682257595464</v>
       </c>
       <c r="P21" t="n">
-        <v>75.51318630499273</v>
+        <v>81.36508569904314</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.6115918251162</v>
+        <v>126.4634912191666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_3</t>
+          <t>model_18_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.995920398914966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7132590710275303</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9614933045616187</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9978974619538211</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9889865961777341</v>
       </c>
       <c r="G22" t="n">
-        <v>0.469262412304898</v>
+        <v>0.02728031124045795</v>
       </c>
       <c r="H22" t="n">
-        <v>1.841566075300257</v>
+        <v>1.917437912359479</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.08624460550683641</v>
       </c>
       <c r="J22" t="n">
-        <v>1.059647248919488</v>
+        <v>0.01396057896656581</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.0501025922367011</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.073452294187506</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1651675247754774</v>
       </c>
       <c r="N22" t="n">
-        <v>1.129554360817876</v>
+        <v>1.007531571233909</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1721990482490802</v>
       </c>
       <c r="P22" t="n">
-        <v>75.51318630499273</v>
+        <v>81.20318007392852</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.6115918251162</v>
+        <v>126.3015855940519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_2</t>
+          <t>model_18_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9955195993534284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7129974017682073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9604052365190178</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9982251245761388</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9889578725084219</v>
       </c>
       <c r="G23" t="n">
-        <v>0.469262412304898</v>
+        <v>0.02996045975397265</v>
       </c>
       <c r="H23" t="n">
-        <v>1.841566075300257</v>
+        <v>1.919187695901448</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.08868158427196783</v>
       </c>
       <c r="J23" t="n">
-        <v>1.059647248919488</v>
+        <v>0.011784941801963</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05023326303696541</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.098635825658881</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1730909002633375</v>
       </c>
       <c r="N23" t="n">
-        <v>1.129554360817876</v>
+        <v>1.008271508885978</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1804597382351069</v>
       </c>
       <c r="P23" t="n">
-        <v>75.51318630499273</v>
+        <v>81.0157535497153</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.6115918251162</v>
+        <v>126.1141590698387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_1</t>
+          <t>model_18_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9950147528843807</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7126570310395191</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.959149844404431</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9985368314241864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9888763152595017</v>
       </c>
       <c r="G24" t="n">
-        <v>0.469262412304898</v>
+        <v>0.03333637041709874</v>
       </c>
       <c r="H24" t="n">
-        <v>1.841566075300257</v>
+        <v>1.92146375653145</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.09149332380054365</v>
       </c>
       <c r="J24" t="n">
-        <v>1.059647248919488</v>
+        <v>0.00971524890175781</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.05060428635115073</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.127013318597747</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.182582503042046</v>
       </c>
       <c r="N24" t="n">
-        <v>1.129554360817876</v>
+        <v>1.009203533136528</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.1903554181944315</v>
       </c>
       <c r="P24" t="n">
-        <v>75.51318630499273</v>
+        <v>80.80221254659938</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.6115918251162</v>
+        <v>125.9006180667228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_11</t>
+          <t>model_18_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9943803905928191</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7122179764720851</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9576949249583</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9988199857889819</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.988724804297057</v>
       </c>
       <c r="G25" t="n">
-        <v>0.469262412304898</v>
+        <v>0.03757835398174031</v>
       </c>
       <c r="H25" t="n">
-        <v>1.841566075300257</v>
+        <v>1.924399716445541</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.09475195070288554</v>
       </c>
       <c r="J25" t="n">
-        <v>1.059647248919488</v>
+        <v>0.00783514077404026</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.0512935457384629</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.15902029466671</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.1938513708533945</v>
       </c>
       <c r="N25" t="n">
-        <v>1.129554360817876</v>
+        <v>1.010374663520949</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2021040250382813</v>
       </c>
       <c r="P25" t="n">
-        <v>75.51318630499273</v>
+        <v>80.56265417267106</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.6115918251162</v>
+        <v>125.6610596927945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_24</t>
+          <t>model_18_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9935849780311338</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7116555715300976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9959094076139086</v>
+        <v>0.9560004125350443</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8681332129985964</v>
+        <v>0.9990586278918209</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9164529386717214</v>
+        <v>0.9884818297442798</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04289728144426894</v>
       </c>
       <c r="H26" t="n">
-        <v>1.841566075300257</v>
+        <v>1.928160520882248</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01774961222791054</v>
+        <v>0.09854720121208534</v>
       </c>
       <c r="J26" t="n">
-        <v>1.059647248919488</v>
+        <v>0.00625058827213205</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5386984305736787</v>
+        <v>0.0523988947421087</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.195142769124712</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.207116589012732</v>
       </c>
       <c r="N26" t="n">
-        <v>1.129554360817876</v>
+        <v>1.011843117480984</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2159339709974489</v>
       </c>
       <c r="P26" t="n">
-        <v>75.51318630499273</v>
+        <v>80.29789364930713</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.6115918251162</v>
+        <v>125.3962991694305</v>
       </c>
     </row>
   </sheetData>
